--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24346\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-2024软工数据统计\2024-SE-Excel\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CBC0BC-F91A-4FAB-814C-08600701ECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596474B6-8FB0-42EA-BC3F-957B5A9168A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="165">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -582,6 +582,10 @@
   </si>
   <si>
     <t>总计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅怡钿</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -639,7 +643,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -725,6 +729,17 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -734,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -746,6 +761,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,9 +790,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1092,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:E47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1103,101 +1121,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="5"/>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="4" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="5"/>
+      <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="4" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="6"/>
+      <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="5"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2636,7 +2654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E054571-BFA3-4C2E-8A90-163875D0870A}">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
@@ -2646,31 +2664,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4195,30 +4213,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5278,6 +5297,17 @@
       </c>
       <c r="H45" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>32201039</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5507,7 +5537,7 @@
       <c r="A19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -5528,7 +5558,7 @@
         <v>129</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="12"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -5549,7 +5579,7 @@
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -5570,7 +5600,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -5591,7 +5621,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -5612,7 +5642,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -5633,7 +5663,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="12"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -5654,7 +5684,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="4"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -5675,7 +5705,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="12"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -5696,7 +5726,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="12"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -5717,7 +5747,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="12"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -5738,7 +5768,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="12"/>
+      <c r="M30" s="4"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -5759,7 +5789,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="12"/>
+      <c r="N31" s="4"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
@@ -5780,7 +5810,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="12"/>
+      <c r="O32" s="4"/>
       <c r="P32" s="3"/>
     </row>
   </sheetData>

--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-2024软工数据统计\2024-SE-Excel\2024软件工程数据统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596474B6-8FB0-42EA-BC3F-957B5A9168A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28097014-E55F-4793-925A-B0AF7FC8E910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="166">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -586,6 +586,23 @@
   </si>
   <si>
     <t>梅怡钿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -749,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,6 +782,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -790,7 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1121,101 +1141,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="6"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="5" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="6"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="5" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="6"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -2520,7 +2540,9 @@
       <c r="D44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="14" t="s">
+        <v>165</v>
+      </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2647,6 +2669,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2655,7 +2678,7 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2664,31 +2687,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4083,7 +4106,9 @@
       <c r="D42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="14" t="s">
+        <v>165</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -4215,7 +4240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
@@ -4228,16 +4253,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5300,13 +5325,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
+      <c r="A46" s="5">
         <v>44</v>
       </c>
       <c r="B46">
         <v>32201039</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="5" t="s">
         <v>164</v>
       </c>
     </row>

--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28097014-E55F-4793-925A-B0AF7FC8E910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495B1226-ACF7-48F7-BA42-F0D1DD80756F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="167">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -603,6 +603,10 @@
       </rPr>
       <t>10</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张天翱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -786,6 +790,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,9 +815,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,116 +1132,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-    </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="6" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="6" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="7"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="6" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="6" t="s">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1327,7 +1332,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1356,7 +1361,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1387,7 +1392,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1418,7 +1423,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1449,7 +1454,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1480,7 +1485,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1511,7 +1516,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1544,7 +1549,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1575,7 +1580,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1608,7 +1613,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1639,7 +1644,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1672,7 +1677,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1703,7 +1708,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1736,7 +1741,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1767,7 +1772,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1798,7 +1803,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1829,7 +1834,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1862,7 +1867,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1893,7 +1898,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1926,7 +1931,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1957,7 +1962,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1988,7 +1993,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2019,7 +2024,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2050,7 +2055,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2081,7 +2086,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2112,7 +2117,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2143,7 +2148,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2174,7 +2179,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2207,7 +2212,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2240,7 +2245,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2271,7 +2276,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2302,7 +2307,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2333,7 +2338,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2364,7 +2369,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2397,7 +2402,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2430,7 +2435,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2463,7 +2468,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2496,7 +2501,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2527,7 +2532,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2540,7 +2545,7 @@
       <c r="D44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="6" t="s">
         <v>165</v>
       </c>
       <c r="F44" s="3"/>
@@ -2558,7 +2563,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2591,7 +2596,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2622,7 +2627,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -2652,6 +2657,28 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>32201039</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>45</v>
+      </c>
+      <c r="B49" s="5">
+        <v>32201062</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2681,39 +2708,39 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2784,7 +2811,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2817,7 +2844,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2848,7 +2875,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2881,7 +2908,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2914,7 +2941,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2947,7 +2974,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2980,7 +3007,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3013,7 +3040,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3048,7 +3075,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3081,7 +3108,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3116,7 +3143,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3149,7 +3176,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3184,7 +3211,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3217,7 +3244,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3252,7 +3279,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3285,7 +3312,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3318,7 +3345,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3351,7 +3378,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3386,7 +3413,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3419,7 +3446,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3454,7 +3481,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3487,7 +3514,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3520,7 +3547,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -3553,7 +3580,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3586,7 +3613,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -3619,7 +3646,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -3652,7 +3679,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -3685,7 +3712,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -3718,7 +3745,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -3753,7 +3780,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -3788,7 +3815,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -3821,7 +3848,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -3854,7 +3881,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -3887,7 +3914,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -3920,7 +3947,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -3955,7 +3982,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -3990,7 +4017,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4025,7 +4052,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4060,7 +4087,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4093,7 +4120,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4106,7 +4133,7 @@
       <c r="D42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="6" t="s">
         <v>165</v>
       </c>
       <c r="F42" s="3"/>
@@ -4126,7 +4153,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4161,7 +4188,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4194,7 +4221,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4244,27 +4271,27 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4290,7 +4317,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4314,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4332,7 +4359,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4356,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4380,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4402,7 +4429,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4426,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4450,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4476,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4496,7 +4523,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4522,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4544,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4568,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4592,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4616,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4640,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -4664,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -4688,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -4714,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -4738,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -4764,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -4788,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -4812,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -4836,7 +4863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4860,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -4882,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4906,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4930,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -4954,7 +4981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4980,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5006,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5030,7 +5057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5054,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5078,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5102,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5126,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5152,7 +5179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5176,7 +5203,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5202,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5226,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5250,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5276,7 +5303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5300,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5324,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -5354,9 +5381,9 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -5368,7 +5395,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>128</v>
       </c>
@@ -5378,7 +5405,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -5388,7 +5415,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
@@ -5398,7 +5425,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>152</v>
       </c>
@@ -5408,7 +5435,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>153</v>
       </c>
@@ -5418,7 +5445,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
@@ -5428,7 +5455,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>155</v>
       </c>
@@ -5438,7 +5465,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>156</v>
       </c>
@@ -5448,7 +5475,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>157</v>
       </c>
@@ -5458,7 +5485,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>158</v>
       </c>
@@ -5468,7 +5495,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>159</v>
       </c>
@@ -5478,7 +5505,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>160</v>
       </c>
@@ -5488,7 +5515,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>161</v>
       </c>
@@ -5498,7 +5525,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>162</v>
       </c>
@@ -5508,7 +5535,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -5558,7 +5585,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>128</v>
       </c>
@@ -5578,7 +5605,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
@@ -5598,7 +5625,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>151</v>
       </c>
@@ -5618,7 +5645,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>152</v>
       </c>
@@ -5638,7 +5665,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>153</v>
       </c>
@@ -5658,7 +5685,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>154</v>
       </c>
@@ -5678,7 +5705,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>155</v>
       </c>
@@ -5698,7 +5725,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>156</v>
       </c>
@@ -5718,7 +5745,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>157</v>
       </c>
@@ -5738,7 +5765,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>158</v>
       </c>
@@ -5758,7 +5785,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>159</v>
       </c>
@@ -5778,7 +5805,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>160</v>
       </c>
@@ -5798,7 +5825,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>161</v>
       </c>
@@ -5818,7 +5845,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>162</v>
       </c>

--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495B1226-ACF7-48F7-BA42-F0D1DD80756F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8892D48A-0BCF-4DFF-9A57-D4DE8CA5D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="170">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -607,6 +607,56 @@
   </si>
   <si>
     <t>张天翱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>抢答+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -770,7 +820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +865,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2443,9 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2546,7 +2601,7 @@
         <v>46</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2668,8 +2723,11 @@
       <c r="C48" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -2678,6 +2736,9 @@
       </c>
       <c r="C49" s="5" t="s">
         <v>166</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8892D48A-0BCF-4DFF-9A57-D4DE8CA5D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8973D7-F71E-4053-A20D-262CB19973C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="173">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -655,8 +655,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>12</t>
+      <t>14</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1（晚一天提交）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚六天提交</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,9 +890,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2667,7 +2689,9 @@
       <c r="E46" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="2"/>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -2723,11 +2747,26 @@
       <c r="C48" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="3"/>
+      <c r="E48" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -2737,9 +2776,24 @@
       <c r="C49" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>169</v>
-      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2763,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E054571-BFA3-4C2E-8A90-163875D0870A}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4265,7 +4319,9 @@
       <c r="E44" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -4315,21 +4371,82 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>32201039</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5">
+        <v>32201062</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:W1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4581,7 +4698,9 @@
         <v>128</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4651,7 +4770,9 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="H14" s="3">
         <v>1</v>
       </c>
@@ -5380,7 +5501,9 @@
       <c r="E44" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
       <c r="G44" s="3">
         <v>1</v>
       </c>
@@ -5404,9 +5527,9 @@
       <c r="E45" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="3">
-        <v>1</v>
+      <c r="F45" s="3"/>
+      <c r="G45" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -5421,6 +5544,33 @@
       </c>
       <c r="C46" s="5" t="s">
         <v>164</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5">
+        <v>32201062</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5438,7 +5588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>

--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8973D7-F71E-4053-A20D-262CB19973C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5DCE8D-1DF8-4B3D-8B5E-2831C2B950B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1209,7 +1209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
@@ -2819,7 +2819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E054571-BFA3-4C2E-8A90-163875D0870A}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
@@ -4445,8 +4445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5DCE8D-1DF8-4B3D-8B5E-2831C2B950B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADC257D-A20E-4DB3-BE79-C7D60BE03433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="174">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -682,6 +682,23 @@
   </si>
   <si>
     <t>晚六天提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>晚4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4分钟提交</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2819,7 +2836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E054571-BFA3-4C2E-8A90-163875D0870A}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
@@ -4445,8 +4462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4605,7 +4622,9 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -4701,7 +4720,9 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -5383,7 +5404,9 @@
       <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="H39" s="3"/>
+      <c r="H39" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">

--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADC257D-A20E-4DB3-BE79-C7D60BE03433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE044D9-1BFC-4590-AE1D-F3ACC282DB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="175">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -698,6 +698,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>4分钟提交</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>08</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1226,18 +1243,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1277,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1297,7 +1314,7 @@
       </c>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1334,7 +1351,7 @@
       </c>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1393,7 +1410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1424,7 +1441,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1437,7 +1454,9 @@
       <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1453,7 +1472,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1484,7 +1503,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1515,7 +1534,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1546,7 +1565,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1577,7 +1596,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1608,7 +1627,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1641,7 +1660,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1672,7 +1691,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1705,7 +1724,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1736,7 +1755,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1769,7 +1788,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1800,7 +1819,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1833,7 +1852,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1864,7 +1883,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1895,7 +1914,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1926,7 +1945,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1959,7 +1978,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1990,7 +2009,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2023,7 +2042,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2054,7 +2073,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2085,7 +2104,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2116,7 +2135,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2147,7 +2166,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2178,7 +2197,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2209,7 +2228,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2240,7 +2259,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2271,7 +2290,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2304,7 +2323,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2337,7 +2356,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2368,7 +2387,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2399,7 +2418,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2430,7 +2449,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2461,7 +2480,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2496,7 +2515,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2529,7 +2548,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2562,7 +2581,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2595,7 +2614,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2626,7 +2645,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2657,7 +2676,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2690,7 +2709,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2723,7 +2742,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -2754,7 +2773,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -2783,7 +2802,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -2837,15 +2856,15 @@
   <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
@@ -2872,7 +2891,7 @@
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2943,7 +2962,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2976,7 +2995,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2989,7 +3008,9 @@
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -3007,7 +3028,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3040,7 +3061,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3073,7 +3094,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3106,7 +3127,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3139,7 +3160,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3172,7 +3193,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3207,7 +3228,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3240,7 +3261,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3275,7 +3296,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3308,7 +3329,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3343,7 +3364,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3376,7 +3397,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3411,7 +3432,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3444,7 +3465,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3477,7 +3498,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3510,7 +3531,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3545,7 +3566,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3578,7 +3599,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3613,7 +3634,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3646,7 +3667,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3679,7 +3700,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -3712,7 +3733,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3745,7 +3766,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -3778,7 +3799,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -3811,7 +3832,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -3844,7 +3865,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -3877,7 +3898,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -3912,7 +3933,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -3947,7 +3968,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -3980,7 +4001,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4013,7 +4034,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4046,7 +4067,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4079,7 +4100,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4114,7 +4135,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4149,7 +4170,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4184,7 +4205,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4219,7 +4240,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4252,7 +4273,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4285,7 +4306,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4320,7 +4341,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4355,7 +4376,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4388,7 +4409,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -4418,7 +4439,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -4462,19 +4483,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>143</v>
       </c>
@@ -4486,7 +4507,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4512,7 +4533,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4536,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4549,12 +4570,14 @@
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4578,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4602,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4626,7 +4649,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4650,7 +4673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4674,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4700,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4724,7 +4747,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4750,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4772,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4798,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4822,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4846,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4870,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -4894,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -4918,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -4944,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -4968,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -4994,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5018,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5042,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5066,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5090,7 +5113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5112,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5136,7 +5159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5160,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5184,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5210,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5236,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5260,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5284,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5308,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5332,7 +5355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5356,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5382,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5408,7 +5431,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5434,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5458,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5482,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5508,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5534,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5558,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -5577,7 +5600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -5615,9 +5638,9 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -5629,7 +5652,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>128</v>
       </c>
@@ -5639,7 +5662,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -5649,7 +5672,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
@@ -5659,7 +5682,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>152</v>
       </c>
@@ -5669,7 +5692,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>153</v>
       </c>
@@ -5679,7 +5702,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
@@ -5689,7 +5712,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>155</v>
       </c>
@@ -5699,7 +5722,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>156</v>
       </c>
@@ -5709,7 +5732,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>157</v>
       </c>
@@ -5719,7 +5742,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>158</v>
       </c>
@@ -5729,7 +5752,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>159</v>
       </c>
@@ -5739,7 +5762,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>160</v>
       </c>
@@ -5749,7 +5772,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>161</v>
       </c>
@@ -5759,7 +5782,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>162</v>
       </c>
@@ -5769,7 +5792,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -5819,7 +5842,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>128</v>
       </c>
@@ -5839,7 +5862,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
@@ -5859,7 +5882,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>151</v>
       </c>
@@ -5879,7 +5902,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>152</v>
       </c>
@@ -5899,7 +5922,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>153</v>
       </c>
@@ -5919,7 +5942,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>154</v>
       </c>
@@ -5939,7 +5962,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>155</v>
       </c>
@@ -5959,7 +5982,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>156</v>
       </c>
@@ -5979,7 +6002,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>157</v>
       </c>
@@ -5999,7 +6022,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>158</v>
       </c>
@@ -6019,7 +6042,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>159</v>
       </c>
@@ -6039,7 +6062,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>160</v>
       </c>
@@ -6059,7 +6082,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>161</v>
       </c>
@@ -6079,7 +6102,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>162</v>
       </c>

--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE044D9-1BFC-4590-AE1D-F3ACC282DB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE52FE9-E6A3-462A-A268-02948652D060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="项目评审表" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作业情况!$E$1:$E$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作业情况!$E$1:$E$47</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="177">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -716,6 +716,14 @@
       </rPr>
       <t>08</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业9.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组作业10.7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -896,7 +904,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
@@ -1243,18 +1251,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C34133-ADDC-4865-A8A7-599D46B0AE85}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1285,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1314,7 +1322,7 @@
       </c>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1351,7 +1359,7 @@
       </c>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1410,7 +1418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1441,7 +1449,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1472,7 +1480,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1503,7 +1511,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1534,7 +1542,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1565,7 +1573,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1596,7 +1604,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1627,7 +1635,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1660,7 +1668,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1691,7 +1699,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1724,7 +1732,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1755,7 +1763,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1788,7 +1796,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1819,7 +1827,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1852,7 +1860,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1883,7 +1891,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1914,7 +1922,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1945,7 +1953,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1978,7 +1986,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2009,7 +2017,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2042,7 +2050,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2073,7 +2081,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2104,7 +2112,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2135,7 +2143,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2166,7 +2174,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2197,7 +2205,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2228,7 +2236,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2259,7 +2267,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2290,7 +2298,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2323,7 +2331,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2356,7 +2364,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2387,7 +2395,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2418,7 +2426,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2449,7 +2457,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2480,7 +2488,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2515,7 +2523,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2548,7 +2556,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2581,7 +2589,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2614,7 +2622,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2645,7 +2653,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2676,7 +2684,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2709,7 +2717,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2742,7 +2750,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -2773,7 +2781,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -2802,7 +2810,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -2859,12 +2867,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
@@ -2891,7 +2899,7 @@
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2962,7 +2970,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2995,7 +3003,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3028,7 +3036,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3061,7 +3069,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3094,7 +3102,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3127,7 +3135,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3160,7 +3168,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3193,7 +3201,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3228,7 +3236,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3261,7 +3269,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3296,7 +3304,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3329,7 +3337,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3364,7 +3372,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3397,7 +3405,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3432,7 +3440,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3465,7 +3473,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3498,7 +3506,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3531,7 +3539,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3566,7 +3574,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3599,7 +3607,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3634,7 +3642,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3667,7 +3675,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3700,7 +3708,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -3733,7 +3741,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3766,7 +3774,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -3799,7 +3807,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -3832,7 +3840,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -3865,7 +3873,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -3898,7 +3906,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -3933,7 +3941,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -3968,7 +3976,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4001,7 +4009,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4034,7 +4042,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4067,7 +4075,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4100,7 +4108,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4135,7 +4143,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4170,7 +4178,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4205,7 +4213,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4240,7 +4248,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4273,7 +4281,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4306,7 +4314,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4341,7 +4349,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4376,7 +4384,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4409,7 +4417,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -4439,7 +4447,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -4481,21 +4489,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32:J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>143</v>
       </c>
@@ -4507,7 +4517,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4532,8 +4542,14 @@
       <c r="H2" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4556,8 +4572,14 @@
       <c r="H3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4576,8 +4598,10 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4600,8 +4624,14 @@
       <c r="H5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4624,8 +4654,14 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4648,8 +4684,14 @@
       <c r="H7" s="6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4672,8 +4714,14 @@
       <c r="H8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4696,8 +4744,14 @@
       <c r="H9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4722,8 +4776,12 @@
       <c r="H10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4746,8 +4804,14 @@
       <c r="H11" s="6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4772,8 +4836,14 @@
       <c r="H12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4794,8 +4864,12 @@
       <c r="H13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="2"/>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4820,8 +4894,12 @@
       <c r="H14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="2"/>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4844,8 +4922,12 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="2"/>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4868,8 +4950,10 @@
       <c r="H16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4892,8 +4976,14 @@
       <c r="H17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -4916,8 +5006,12 @@
       <c r="H18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="2"/>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -4940,8 +5034,10 @@
       <c r="H19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -4966,8 +5062,10 @@
       <c r="H20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -4990,8 +5088,14 @@
       <c r="H21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5016,8 +5120,10 @@
       <c r="H22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5040,8 +5146,12 @@
       <c r="H23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="2"/>
+      <c r="J23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5064,8 +5174,10 @@
       <c r="H24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5088,8 +5200,10 @@
       <c r="H25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5112,8 +5226,14 @@
       <c r="H26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5134,8 +5254,14 @@
       <c r="H27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5158,8 +5284,10 @@
       <c r="H28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5182,8 +5310,10 @@
       <c r="H29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5206,8 +5336,10 @@
       <c r="H30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5232,8 +5364,14 @@
       <c r="H31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5258,8 +5396,14 @@
       <c r="H32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5282,8 +5426,14 @@
       <c r="H33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5306,8 +5456,14 @@
       <c r="H34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5330,8 +5486,14 @@
       <c r="H35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5354,8 +5516,14 @@
       <c r="H36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5378,8 +5546,14 @@
       <c r="H37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5404,8 +5578,14 @@
       <c r="H38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5430,8 +5610,14 @@
       <c r="H39" s="6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5456,8 +5642,14 @@
       <c r="H40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5480,8 +5672,14 @@
       <c r="H41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5504,8 +5702,14 @@
       <c r="H42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5530,8 +5734,14 @@
       <c r="H43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5556,8 +5766,14 @@
       <c r="H44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5580,18 +5796,25 @@
       <c r="H45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>32201039</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F46" s="2"/>
@@ -5599,18 +5822,25 @@
       <c r="H46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>32201062</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F47" s="2"/>
@@ -5618,9 +5848,15 @@
       <c r="H47" s="3">
         <v>1</v>
       </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E43" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}"/>
+  <autoFilter ref="E1:E47" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
@@ -5638,9 +5874,9 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -5652,7 +5888,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>128</v>
       </c>
@@ -5662,7 +5898,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -5672,7 +5908,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
@@ -5682,7 +5918,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>152</v>
       </c>
@@ -5692,7 +5928,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>153</v>
       </c>
@@ -5702,7 +5938,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
@@ -5712,7 +5948,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>155</v>
       </c>
@@ -5722,7 +5958,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>156</v>
       </c>
@@ -5732,7 +5968,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>157</v>
       </c>
@@ -5742,7 +5978,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>158</v>
       </c>
@@ -5752,7 +5988,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>159</v>
       </c>
@@ -5762,7 +5998,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>160</v>
       </c>
@@ -5772,7 +6008,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>161</v>
       </c>
@@ -5782,7 +6018,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>162</v>
       </c>
@@ -5792,7 +6028,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -5842,7 +6078,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>128</v>
       </c>
@@ -5862,7 +6098,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
@@ -5882,7 +6118,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>151</v>
       </c>
@@ -5902,7 +6138,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>152</v>
       </c>
@@ -5922,7 +6158,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>153</v>
       </c>
@@ -5942,7 +6178,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>154</v>
       </c>
@@ -5962,7 +6198,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>155</v>
       </c>
@@ -5982,7 +6218,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>156</v>
       </c>
@@ -6002,7 +6238,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>157</v>
       </c>
@@ -6022,7 +6258,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>158</v>
       </c>
@@ -6042,7 +6278,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>159</v>
       </c>
@@ -6062,7 +6298,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>160</v>
       </c>
@@ -6082,7 +6318,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>161</v>
       </c>
@@ -6102,7 +6338,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>162</v>
       </c>

--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE52FE9-E6A3-462A-A268-02948652D060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411BF9E7-7BA7-462F-B111-9DC844FC1FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1255,14 +1255,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.46484375" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1285,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1449,7 +1449,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1635,7 +1635,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1668,7 +1668,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1860,7 +1860,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1922,7 +1922,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2017,7 +2017,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2081,7 +2081,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2331,7 +2331,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2364,7 +2364,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2457,7 +2457,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2556,7 +2556,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2589,7 +2589,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2653,7 +2653,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -2867,12 +2867,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3003,7 +3003,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3102,7 +3102,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3135,7 +3135,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3201,7 +3201,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3269,7 +3269,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3304,7 +3304,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3337,7 +3337,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3440,7 +3440,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3539,7 +3539,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3574,7 +3574,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3708,7 +3708,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3774,7 +3774,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -3807,7 +3807,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -3840,7 +3840,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -3941,7 +3941,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -3976,7 +3976,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4009,7 +4009,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4042,7 +4042,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4075,7 +4075,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4108,7 +4108,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4143,7 +4143,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4178,7 +4178,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4213,7 +4213,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4314,7 +4314,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4349,7 +4349,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4417,7 +4417,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -4447,7 +4447,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -4492,20 +4492,20 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:J34"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.86328125" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>143</v>
       </c>
@@ -4517,7 +4517,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4953,7 +4953,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5037,7 +5037,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5065,7 +5065,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5121,9 +5121,11 @@
         <v>1</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5151,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5175,9 +5177,11 @@
         <v>1</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5203,7 +5207,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5233,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5261,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5285,9 +5289,11 @@
         <v>1</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5313,7 +5319,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5339,7 +5345,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5371,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5403,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5433,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5463,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5493,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5523,7 +5529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5553,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5585,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5649,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5679,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5709,7 +5715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5741,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5773,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5803,7 +5809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5829,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -5874,9 +5880,9 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -5888,7 +5894,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>128</v>
       </c>
@@ -5898,7 +5904,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -5908,7 +5914,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>151</v>
       </c>
@@ -5918,7 +5924,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>152</v>
       </c>
@@ -5928,7 +5934,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>153</v>
       </c>
@@ -5938,7 +5944,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>154</v>
       </c>
@@ -5948,7 +5954,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>155</v>
       </c>
@@ -5958,7 +5964,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>156</v>
       </c>
@@ -5968,7 +5974,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>157</v>
       </c>
@@ -5978,7 +5984,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>158</v>
       </c>
@@ -5988,7 +5994,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>159</v>
       </c>
@@ -5998,7 +6004,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>160</v>
       </c>
@@ -6008,7 +6014,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>161</v>
       </c>
@@ -6018,7 +6024,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>162</v>
       </c>
@@ -6028,7 +6034,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -6078,7 +6084,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>128</v>
       </c>
@@ -6098,7 +6104,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
@@ -6118,7 +6124,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>151</v>
       </c>
@@ -6138,7 +6144,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>152</v>
       </c>
@@ -6158,7 +6164,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>153</v>
       </c>
@@ -6178,7 +6184,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>154</v>
       </c>
@@ -6198,7 +6204,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>155</v>
       </c>
@@ -6218,7 +6224,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>156</v>
       </c>
@@ -6238,7 +6244,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>157</v>
       </c>
@@ -6258,7 +6264,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>158</v>
       </c>
@@ -6278,7 +6284,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>159</v>
       </c>
@@ -6298,7 +6304,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>160</v>
       </c>
@@ -6318,7 +6324,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>161</v>
       </c>
@@ -6338,7 +6344,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>162</v>
       </c>

--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411BF9E7-7BA7-462F-B111-9DC844FC1FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F94595-43AE-439B-BF9F-FDF09F046DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="项目评审表" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作业情况!$E$1:$E$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作业情况!$F$1:$F$47</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="180">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -538,10 +538,6 @@
   </si>
   <si>
     <t>方苏麒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.24第一次ppt汇报</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -724,6 +720,22 @@
   </si>
   <si>
     <t>小组作业10.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.8第二次项目计划汇报</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>填表人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管一超</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺勤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1255,14 +1267,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1297,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1334,7 @@
       </c>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1371,7 @@
       </c>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1418,7 +1430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1449,7 +1461,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1463,7 +1475,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1480,7 +1492,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1511,7 +1523,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1542,7 +1554,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1573,7 +1585,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1604,7 +1616,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1635,7 +1647,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1668,7 +1680,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1699,7 +1711,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1732,7 +1744,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1763,7 +1775,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1796,7 +1808,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1827,7 +1839,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1860,7 +1872,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1891,7 +1903,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1922,7 +1934,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1953,7 +1965,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1986,7 +1998,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2017,7 +2029,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2050,7 +2062,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2081,7 +2093,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2112,7 +2124,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2143,7 +2155,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2174,7 +2186,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2205,7 +2217,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2236,7 +2248,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2267,7 +2279,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2298,7 +2310,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2331,7 +2343,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2364,7 +2376,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2395,7 +2407,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2426,7 +2438,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2457,7 +2469,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2488,7 +2500,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2510,7 +2522,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2523,7 +2535,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2556,7 +2568,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2589,7 +2601,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2622,7 +2634,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2653,7 +2665,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2667,7 +2679,7 @@
         <v>46</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2684,7 +2696,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2717,7 +2729,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2750,7 +2762,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -2781,7 +2793,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -2789,11 +2801,11 @@
         <v>32201039</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2810,7 +2822,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -2818,11 +2830,11 @@
         <v>32201062</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2863,16 +2875,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E054571-BFA3-4C2E-8A90-163875D0870A}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
@@ -2899,7 +2911,7 @@
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2970,7 +2982,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3003,7 +3015,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3017,7 +3029,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
@@ -3036,7 +3048,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3069,7 +3081,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3102,7 +3114,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3135,7 +3147,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3168,7 +3180,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3201,7 +3213,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3236,7 +3248,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3269,7 +3281,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3304,7 +3316,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3337,7 +3349,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3372,7 +3384,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3405,7 +3417,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3440,7 +3452,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3473,7 +3485,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3506,7 +3518,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3539,7 +3551,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3574,7 +3586,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3607,7 +3619,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3642,7 +3654,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3675,7 +3687,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3708,7 +3720,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -3741,7 +3753,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3774,7 +3786,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -3807,7 +3819,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -3840,7 +3852,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -3873,7 +3885,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -3906,7 +3918,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -3941,7 +3953,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -3976,7 +3988,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -3997,7 +4009,9 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4009,7 +4023,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4042,7 +4056,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4075,7 +4089,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4108,7 +4122,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4143,7 +4157,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4178,7 +4192,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4213,7 +4227,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4248,7 +4262,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4281,7 +4295,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4295,7 +4309,7 @@
         <v>46</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
@@ -4314,7 +4328,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4349,7 +4363,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4384,7 +4398,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4417,17 +4431,18 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>32201039</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="C46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
         <v>148</v>
       </c>
       <c r="F46" s="2"/>
@@ -4447,17 +4462,18 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>32201062</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="C47" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F47" s="2"/>
@@ -4489,23 +4505,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>143</v>
       </c>
@@ -4517,7 +4534,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4543,13 +4560,13 @@
         <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4579,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4593,7 +4610,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4601,7 +4618,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4631,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4661,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4682,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -4691,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4721,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4751,7 +4768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4781,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4802,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -4811,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4843,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4869,7 +4886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4889,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -4899,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4927,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4953,7 +4970,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4983,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5011,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5037,7 +5054,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5065,7 +5082,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5095,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5125,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5153,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5181,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5207,7 +5224,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5237,7 +5254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5265,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5293,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5319,7 +5336,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5345,7 +5362,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5377,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5409,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5439,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5469,7 +5486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5499,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5529,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5559,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5591,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5614,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
@@ -5623,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5655,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5685,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5715,7 +5732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5747,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5779,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5797,7 +5814,7 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -5809,7 +5826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5817,7 +5834,7 @@
         <v>32201039</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
@@ -5835,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -5843,7 +5860,7 @@
         <v>32201062</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -5862,7 +5879,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E47" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}"/>
+  <autoFilter ref="F1:F47" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
@@ -5874,27 +5897,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="21.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>128</v>
       </c>
@@ -5904,7 +5931,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -5914,9 +5941,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5924,9 +5951,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5934,9 +5961,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5944,9 +5971,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5954,9 +5981,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5964,9 +5991,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5974,9 +6001,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5984,9 +6011,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5994,9 +6021,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6004,9 +6031,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6014,9 +6041,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6024,9 +6051,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6034,62 +6061,67 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -6103,14 +6135,17 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -6123,15 +6158,18 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -6143,16 +6181,19 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -6163,17 +6204,22 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B23" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="3">
+        <v>50</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -6183,18 +6229,21 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -6203,19 +6252,22 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -6223,32 +6275,38 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -6256,19 +6314,22 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>157</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -6277,18 +6338,21 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -6298,17 +6362,20 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -6319,16 +6386,19 @@
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="4"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -6340,15 +6410,18 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
       <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -6361,8 +6434,9 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Git-2024软工数据统计\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411BF9E7-7BA7-462F-B111-9DC844FC1FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB48C08-BC5B-4C65-9CE6-977F4DA2D51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="176">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -538,10 +538,6 @@
   </si>
   <si>
     <t>方苏麒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.24第一次ppt汇报</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1255,14 +1251,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1281,7 @@
       <c r="R1" s="10"/>
       <c r="S1" s="10"/>
     </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1318,7 @@
       </c>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1355,7 @@
       </c>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1418,7 +1414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1449,7 +1445,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1463,7 +1459,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1480,7 +1476,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1511,7 +1507,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1542,7 +1538,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1573,7 +1569,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1604,7 +1600,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1635,7 +1631,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1668,7 +1664,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1699,7 +1695,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1732,7 +1728,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1763,7 +1759,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1796,7 +1792,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1827,7 +1823,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1860,7 +1856,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1891,7 +1887,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1922,7 +1918,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1953,7 +1949,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1986,7 +1982,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -2017,7 +2013,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2050,7 +2046,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2081,7 +2077,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2112,7 +2108,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2143,7 +2139,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -2174,7 +2170,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -2205,7 +2201,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -2236,7 +2232,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -2267,7 +2263,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
     </row>
-    <row r="32" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -2298,7 +2294,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -2331,7 +2327,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -2364,7 +2360,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -2395,7 +2391,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -2426,7 +2422,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -2457,7 +2453,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="38" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -2488,7 +2484,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -2510,7 +2506,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2523,7 +2519,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -2556,7 +2552,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
-    <row r="41" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -2589,7 +2585,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -2622,7 +2618,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -2653,7 +2649,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
-    <row r="44" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -2667,7 +2663,7 @@
         <v>46</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2684,7 +2680,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="1:19" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -2717,7 +2713,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -2750,7 +2746,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -2781,7 +2777,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -2789,11 +2785,11 @@
         <v>32201039</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2810,7 +2806,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -2818,11 +2814,11 @@
         <v>32201062</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2867,12 +2863,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
@@ -2899,7 +2895,7 @@
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2970,7 +2966,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3003,7 +2999,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3017,7 +3013,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
@@ -3036,7 +3032,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3069,7 +3065,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3102,7 +3098,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3135,7 +3131,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3168,7 +3164,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -3201,7 +3197,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3236,7 +3232,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3269,7 +3265,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -3304,7 +3300,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3337,7 +3333,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -3372,7 +3368,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3405,7 +3401,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -3440,7 +3436,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -3473,7 +3469,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -3506,7 +3502,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -3539,7 +3535,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -3574,7 +3570,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -3607,7 +3603,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -3642,7 +3638,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -3675,7 +3671,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -3708,7 +3704,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -3741,7 +3737,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -3774,7 +3770,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -3807,7 +3803,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -3840,7 +3836,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -3873,7 +3869,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -3906,7 +3902,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -3941,7 +3937,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -3976,7 +3972,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4009,7 +4005,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4042,7 +4038,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4075,7 +4071,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4108,7 +4104,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4143,7 +4139,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4178,7 +4174,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -4213,7 +4209,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -4248,7 +4244,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -4281,7 +4277,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -4295,7 +4291,7 @@
         <v>46</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
@@ -4314,7 +4310,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -4349,7 +4345,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -4384,7 +4380,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -4417,7 +4413,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -4425,7 +4421,7 @@
         <v>32201039</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>148</v>
@@ -4447,7 +4443,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -4455,7 +4451,7 @@
         <v>32201062</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>139</v>
@@ -4491,21 +4487,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F85BF50-88E6-40A2-A1FB-0D6A472C90B1}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>143</v>
       </c>
@@ -4517,7 +4513,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4543,13 +4539,13 @@
         <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4579,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4593,7 +4589,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4601,7 +4597,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4631,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4661,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4682,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -4691,7 +4687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4721,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4751,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4781,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4802,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -4811,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4843,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4869,7 +4865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4889,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -4899,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4927,7 +4923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4953,7 +4949,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4983,7 +4979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5011,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5037,7 +5033,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5065,7 +5061,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5095,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5125,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5153,7 +5149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5181,7 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5207,7 +5203,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5237,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5265,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5293,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5319,7 +5315,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5345,7 +5341,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5377,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5409,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5439,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5469,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5499,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5529,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5559,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5591,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5614,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
@@ -5623,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5655,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5685,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5715,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5747,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5779,7 +5775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5797,7 +5793,7 @@
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -5809,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5817,7 +5813,7 @@
         <v>32201039</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
@@ -5835,7 +5831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -5843,7 +5839,7 @@
         <v>32201062</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -5876,25 +5872,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>150</v>
+      <c r="B1" s="3">
+        <v>10.8</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>128</v>
       </c>
@@ -5904,7 +5900,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -5914,9 +5910,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5924,9 +5920,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5934,9 +5930,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5944,9 +5940,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5954,9 +5950,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5964,9 +5960,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -5974,9 +5970,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -5984,9 +5980,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -5994,9 +5990,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6004,9 +6000,9 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6014,9 +6010,9 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6024,9 +6020,9 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6034,7 +6030,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -6045,46 +6041,46 @@
         <v>129</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>128</v>
       </c>
@@ -6104,7 +6100,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
@@ -6124,9 +6120,9 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6144,9 +6140,9 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6164,9 +6160,9 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6184,9 +6180,9 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6204,9 +6200,9 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6224,9 +6220,9 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6244,9 +6240,9 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6264,9 +6260,9 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6284,9 +6280,9 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6304,9 +6300,9 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6324,9 +6320,9 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6344,9 +6340,9 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6367,5 +6363,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F94595-43AE-439B-BF9F-FDF09F046DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A887840-8579-4DF4-8635-5B90C56E158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作业情况!$F$1:$F$47</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2875,7 +2884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E054571-BFA3-4C2E-8A90-163875D0870A}">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -5899,8 +5908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6132,7 +6141,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="3">
+        <v>32</v>
+      </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -6144,10 +6155,14 @@
       <c r="B20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3">
+        <v>63</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3">
+        <v>63</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -6155,7 +6170,9 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="N20" s="3">
+        <v>55</v>
+      </c>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -6167,10 +6184,14 @@
       <c r="B21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3">
+        <v>63</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3">
+        <v>62</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -6178,7 +6199,9 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="N21" s="3">
+        <v>62</v>
+      </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -6190,7 +6213,9 @@
       <c r="B22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3">
+        <v>63</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
@@ -6201,7 +6226,9 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="N22" s="3">
+        <v>62</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -6213,11 +6240,13 @@
       <c r="B23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3">
+        <v>63</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="3"/>
@@ -6226,7 +6255,9 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="N23" s="3">
+        <v>50</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -6238,10 +6269,14 @@
       <c r="B24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3">
+        <v>64</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3">
+        <v>64</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
       <c r="I24" s="3"/>
@@ -6249,7 +6284,9 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="N24" s="3">
+        <v>31</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -6261,10 +6298,14 @@
       <c r="B25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3">
+        <v>67</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3">
+        <v>52</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="4"/>
@@ -6272,7 +6313,9 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="N25" s="3">
+        <v>52</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -6284,10 +6327,14 @@
       <c r="B26" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3">
+        <v>59</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <v>60</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -6295,7 +6342,9 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="N26" s="3">
+        <v>52</v>
+      </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -6307,10 +6356,14 @@
       <c r="B27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3">
+        <v>53</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3">
+        <v>45</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -6318,7 +6371,9 @@
       <c r="K27" s="4"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="N27" s="3">
+        <v>31</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -6330,10 +6385,14 @@
       <c r="B28" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3">
+        <v>60</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3">
+        <v>61</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -6341,7 +6400,9 @@
       <c r="K28" s="3"/>
       <c r="L28" s="4"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="N28" s="3">
+        <v>53</v>
+      </c>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -6353,10 +6414,14 @@
       <c r="B29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3">
+        <v>48</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3">
+        <v>48</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -6364,7 +6429,9 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="3"/>
+      <c r="N29" s="3">
+        <v>52</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -6376,10 +6443,14 @@
       <c r="B30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3">
+        <v>48</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="3">
+        <v>64</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -6402,7 +6473,9 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3">
+        <v>50</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -6422,10 +6495,14 @@
       <c r="B32" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3">
+        <v>55</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3">
+        <v>52</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -6433,7 +6510,9 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="N32" s="3">
+        <v>43</v>
+      </c>
       <c r="O32" s="3"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="3"/>

--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A887840-8579-4DF4-8635-5B90C56E158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329AA17F-DE08-4530-8087-3C8D6090127C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="177">
   <si>
     <t>浙大城市学院课堂考核及成绩记载表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -584,10 +584,6 @@
   </si>
   <si>
     <t>G14</t>
-  </si>
-  <si>
-    <t>总计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>梅怡钿</t>
@@ -732,19 +728,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.8第二次项目计划汇报</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填表人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>管一超</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>缺勤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次项目计划汇报（总分80）10.8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -802,7 +790,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -871,23 +859,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
     <border>
       <left style="thin">
         <color auto="1"/>
@@ -921,11 +892,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
@@ -954,6 +921,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1284,101 +1254,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="7" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="7" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="8"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="7" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="7" t="s">
+      <c r="Q3" s="7"/>
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="8"/>
+      <c r="S3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
@@ -1483,8 +1453,8 @@
       <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>173</v>
+      <c r="E6" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2530,8 +2500,8 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="6" t="s">
-        <v>166</v>
+      <c r="I39" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -2687,8 +2657,8 @@
       <c r="D44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>167</v>
+      <c r="E44" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -2803,18 +2773,18 @@
       <c r="S47" s="2"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>44</v>
       </c>
       <c r="B48">
         <v>32201039</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>163</v>
+      <c r="C48" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D48" s="3"/>
-      <c r="E48" s="6" t="s">
-        <v>168</v>
+      <c r="E48" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -2832,18 +2802,18 @@
       <c r="S48" s="2"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>45</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>32201062</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>165</v>
+      <c r="C49" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="D49" s="3"/>
-      <c r="E49" s="6" t="s">
-        <v>169</v>
+      <c r="E49" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -2894,31 +2864,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -3037,8 +3007,8 @@
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>173</v>
+      <c r="E4" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
@@ -4019,7 +3989,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -4317,8 +4287,8 @@
       <c r="D42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>164</v>
+      <c r="E42" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
@@ -4448,7 +4418,7 @@
         <v>32201039</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
@@ -4479,7 +4449,7 @@
         <v>32201062</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -4532,16 +4502,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -4569,10 +4539,10 @@
         <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
@@ -4618,8 +4588,8 @@
       <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>173</v>
+      <c r="E4" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -4707,8 +4677,8 @@
       <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>172</v>
+      <c r="H7" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="I7" s="3">
         <v>1</v>
@@ -4827,8 +4797,8 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>172</v>
+      <c r="H11" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="I11" s="3">
         <v>1</v>
@@ -4915,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H14" s="3">
         <v>1</v>
@@ -5639,8 +5609,8 @@
       <c r="G39" s="3">
         <v>1</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>172</v>
+      <c r="H39" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="I39" s="3">
         <v>1</v>
@@ -5822,8 +5792,8 @@
         <v>148</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="6" t="s">
-        <v>171</v>
+      <c r="G45" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -5843,7 +5813,7 @@
         <v>32201039</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
@@ -5869,7 +5839,7 @@
         <v>32201062</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
@@ -5906,23 +5876,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FB694-32D6-4278-9D50-7298BB867D7B}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="21.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="30.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>176</v>
       </c>
       <c r="C1" s="2"/>
@@ -5934,7 +5904,9 @@
       <c r="A2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3">
+        <v>58.83</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -5944,7 +5916,9 @@
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3">
+        <v>47.7</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -5954,7 +5928,7 @@
       <c r="A4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -5964,7 +5938,9 @@
       <c r="A5" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3">
+        <v>56.92</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -5974,7 +5950,9 @@
       <c r="A6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3">
+        <v>58</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5984,7 +5962,7 @@
       <c r="A7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -5994,7 +5972,9 @@
       <c r="A8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3">
+        <v>15</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -6004,7 +5984,7 @@
       <c r="A9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6014,7 +5994,9 @@
       <c r="A10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3">
+        <v>53.71</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6024,7 +6006,9 @@
       <c r="A11" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3">
+        <v>52.57</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -6034,7 +6018,9 @@
       <c r="A12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3">
+        <v>50.5</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -6044,7 +6030,9 @@
       <c r="A13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="3">
+        <v>47.92</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6054,7 +6042,7 @@
       <c r="A14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -6064,458 +6052,13 @@
       <c r="A15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="3">
+        <v>36.22</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3">
-        <v>32</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="3">
-        <v>63</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3">
-        <v>63</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3">
-        <v>55</v>
-      </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="3">
-        <v>63</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3">
-        <v>62</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3">
-        <v>62</v>
-      </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="3">
-        <v>63</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3">
-        <v>62</v>
-      </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="3">
-        <v>63</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3">
-        <v>62</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3">
-        <v>50</v>
-      </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="3">
-        <v>64</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
-        <v>64</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3">
-        <v>31</v>
-      </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="3">
-        <v>67</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3">
-        <v>52</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3">
-        <v>52</v>
-      </c>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="3">
-        <v>59</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3">
-        <v>60</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3">
-        <v>52</v>
-      </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="3">
-        <v>53</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
-        <v>45</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3">
-        <v>31</v>
-      </c>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="3">
-        <v>60</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
-        <v>61</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3">
-        <v>53</v>
-      </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="3">
-        <v>48</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <v>48</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="3">
-        <v>52</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="3">
-        <v>48</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3">
-        <v>64</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3">
-        <v>50</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="3">
-        <v>55</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3">
-        <v>52</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3">
-        <v>43</v>
-      </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
+++ b/2024软件工程数据统计/课堂考核及成绩记载表9.24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\2024软件工程数据统计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329AA17F-DE08-4530-8087-3C8D6090127C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9308A3-C5FE-4C17-B710-62159274E365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{15CF8AE8-1EC8-4A90-874E-5E62FFFEBE63}"/>
   </bookViews>
@@ -898,6 +898,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,9 +924,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1254,101 +1254,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="7"/>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="6" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="6" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="27.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="7"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="6" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="6" t="s">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="7"/>
+      <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
@@ -2864,31 +2864,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -4502,16 +4502,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
@@ -5879,7 +5879,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5892,7 +5892,7 @@
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="6" t="s">
         <v>176</v>
       </c>
       <c r="C1" s="2"/>
@@ -5917,7 +5917,7 @@
         <v>129</v>
       </c>
       <c r="B3" s="3">
-        <v>47.7</v>
+        <v>51.36</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5928,7 +5928,9 @@
       <c r="A4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3">
+        <v>63.73</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -5962,7 +5964,9 @@
       <c r="A7" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3">
+        <v>61.5</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -5973,7 +5977,7 @@
         <v>154</v>
       </c>
       <c r="B8" s="3">
-        <v>15</v>
+        <v>51.78</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -5984,7 +5988,9 @@
       <c r="A9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>56.7</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6019,7 +6025,7 @@
         <v>158</v>
       </c>
       <c r="B12" s="3">
-        <v>50.5</v>
+        <v>59.54</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6042,7 +6048,9 @@
       <c r="A14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>63.44</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -6053,7 +6061,7 @@
         <v>161</v>
       </c>
       <c r="B15" s="3">
-        <v>36.22</v>
+        <v>54.73</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
